--- a/pred_ohlcv/54_21/2019-10-10 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-10 ARN ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>1563318.479</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1563318.479</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1563318.479</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1144747.749</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1145658.4674</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-355001.27882837</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-353964.77930745</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-353964.77930745</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-353964.77930745</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-353964.77930745</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-336387.9629790799</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-335911.9629790799</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-320968.5749790799</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-307418.0047790799</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-303213.4509790799</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-303213.4509790799</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-310038.2657790799</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-309339.9765790799</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-308037.8108790799</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-315909.6824790799</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-315909.6824790799</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-321612.9448790799</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-321047.0962790799</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-321372.3294790799</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-321372.3294790799</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-319516.8830790799</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-319516.8830790799</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-325185.6907790799</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-324836.5205790799</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-324835.5205790799</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-300281.4519797499</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-244382.9818507699</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-232896.7429507699</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-234936.4476507699</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-231182.9016427099</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-202198.6936930999</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-192439.8885507699</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-206028.7754357199</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-206387.7115357199</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-197556.9189357199</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-198587.0521357199</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-198921.4998357199</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-213995.6355142099</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-219912.4634142099</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-219128.1359142099</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-219128.1359142099</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-209599.1468357199</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-207873.3817357199</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-210291.8914357199</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-214287.8473357199</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-214287.8473357199</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-222962.6987357199</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-221205.9338357199</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-221205.9338357199</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-219151.1433357199</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-221044.1613357199</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-221044.1613357199</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-276743.5900273499</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-10 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-10 ARN ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>1563318.479</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1563318.479</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1563318.479</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1144747.749</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1145658.4674</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-347057.33302837</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-353964.77930745</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-336387.9629790799</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-335911.9629790799</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-320968.5749790799</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-307418.0047790799</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-303213.4509790799</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-303213.4509790799</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-310038.2657790799</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-308952.6048790799</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-309339.9765790799</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-309313.9765790799</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-308037.8108790799</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-310015.3701790799</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-315909.6824790799</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-315909.6824790799</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-321612.9448790799</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-321047.0962790799</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-321372.3294790799</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-321372.3294790799</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-319516.8830790799</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-319516.8830790799</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-325185.6907790799</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-324836.5205790799</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-324835.5205790799</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-300281.4519797499</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-244382.9818507699</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-232896.7429507699</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-234936.4476507699</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-231182.9016427099</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-202198.6936930999</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-192439.8885507699</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-192439.8885507699</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-206028.7754357199</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-206387.7115357199</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-197556.9189357199</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-198587.0521357199</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-198921.4998357199</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-214410.7665357199</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-219858.0949357199</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-217081.9865142099</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-217285.75211421</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-220452.20371421</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-219327.4583142099</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-230564.6443142099</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-222557.8145142099</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-213995.6355142099</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-219912.4634142099</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-219128.1359142099</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-219128.1359142099</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-209599.1468357199</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-207873.3817357199</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-210291.8914357199</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-214287.8473357199</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-214287.8473357199</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-222962.6987357199</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-230218.3347034499</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-225533.1221273499</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-225586.7982273499</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-226924.6753273499</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-276743.5900273499</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
